--- a/Tester Results/SIGNIFICANT_RECORDER_COUNTS.xlsx
+++ b/Tester Results/SIGNIFICANT_RECORDER_COUNTS.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
